--- a/biology/Zoologie/Elmidae/Elmidae.xlsx
+++ b/biology/Zoologie/Elmidae/Elmidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elmidés
 Les Elmidae, en français Elmidés, sont une famille de Coléoptères très diversifiés de petite taille. Ces insectes sont répartis en deux sous-familles, les Elminae (en), qui sont souvent aquatiques (en), et les Larainae (en), qui sont semi-aquatiques. Les espèces réparties à l'intérieur de ces sous-familles partagent des caractéristiques communes mais se différencient par des spécificités.
@@ -513,13 +525,86 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2005, J. Kodada et M. A. Jäch[1] proposent des clés de déterminination.
-En 2008, la description des membres de la famille Elmidae est incomplète : sur 1 850 espèces estimées, seules 1 330 espèces sont décrites[2]. Il n'existe pas d'études comparatives suffisamment larges qui réalisent une synthèse familiale.
-Œufs
-David S. White, dans Encyclopedia of Inland Waters, fournit une description générale des œufs de Coléoptères aquatiques : ils sont « simples, ovoïdes et d'apparence blanche à jaunâtre »[b 2]. Ils vivent tout leur stade durant dans l'eau[b 3].
-Larves
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2005, J. Kodada et M. A. Jäch proposent des clés de déterminination.
+En 2008, la description des membres de la famille Elmidae est incomplète : sur 1 850 espèces estimées, seules 1 330 espèces sont décrites. Il n'existe pas d'études comparatives suffisamment larges qui réalisent une synthèse familiale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elmidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elmidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Œufs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David S. White, dans Encyclopedia of Inland Waters, fournit une description générale des œufs de Coléoptères aquatiques : ils sont « simples, ovoïdes et d'apparence blanche à jaunâtre »[b 2]. Ils vivent tout leur stade durant dans l'eau[b 3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elmidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elmidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Larves</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 	Exemples illustrés de larves du genre Ancyronyx (vue dorsale)
 			Ancyronyx buhid
 			Ancyronyx helgeschneideri
@@ -535,126 +620,384 @@
 			(7) Larva Z(8) Stenhelmoides Grouvelle(9) Stenhelmoides Grouvelle(10) Potamophilops Grouvelle(11) Elachistelmis Maier(12) Xenelmis Hinton(13) Stegoelmis Hinton
 			(14) Gyrelmis Hinton(15) Hexacylloepus Hinton(16) Neoelmis Musgrave(17) Heterelmis Sharp(18) Microcylloepus Hinton(19) Macrelmis Motschulsky
 			(20) Hintonelmis Spangler(21) Larva Y(22) Larva X
-Pupes
-Toutes les pupes de cette famille ne sont pas décrites, certaines espèces le sont[3]. En 1983, Robert J. Steedman, dans le journal Aquatic Insects, réalise des descriptions générales.
-Adultes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elmidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elmidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pupes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les pupes de cette famille ne sont pas décrites, certaines espèces le sont. En 1983, Robert J. Steedman, dans le journal Aquatic Insects, réalise des descriptions générales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Elmidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elmidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Adultes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Vue dorsale
-Membres de la classe des insectes et de l'ordre des Coléoptères[4], les adultes possèdent des traits morphologiques communs, hérités des taxons supérieurs, bien que certains de ses traits puissent varier avec les autres familles de son ordre et entre ses taxons inférieurs. En tant qu'insectes, ils possèdent une anatomie similaire avec un corps divisé en trois parties distinctes : la tête, le thorax et l'abdomen ; et tant que Coléoptères, ils possèdent un exosquelette, plus ou moins dur, de forme cylrindrique, avec une forme d'arc au niveau des élytres qui recouvrent ses ailes.
+Membres de la classe des insectes et de l'ordre des Coléoptères, les adultes possèdent des traits morphologiques communs, hérités des taxons supérieurs, bien que certains de ses traits puissent varier avec les autres familles de son ordre et entre ses taxons inférieurs. En tant qu'insectes, ils possèdent une anatomie similaire avec un corps divisé en trois parties distinctes : la tête, le thorax et l'abdomen ; et tant que Coléoptères, ils possèdent un exosquelette, plus ou moins dur, de forme cylrindrique, avec une forme d'arc au niveau des élytres qui recouvrent ses ailes.
 Pour classer une nouvelle espèce, outre l'analyse phylogénétique, les adultes sont différenciés à partir du nombre de segments (tarsomères) que comportent les pattes de l'individu[b 4].
-Ailes
-En 2013, Hayashi et Kodama[b 5] publient une étude sur 24 espèces japonaises d'eau douce appartenant à 9 genres différents, 17 d'entre elles présentent une dégénération des ailes arrière. Plus précisément, elles peuvent être aptères (en) (dépourvues d'ailes), brachyptères (aux ailes réduites), macroptères (aux ailes larges) ou dysmorphiques[b 6]. Par exemple, l'espèce Zaitzeviaria brevis est aptère, Zaitzevia rivalis est macroptère (ailes très larges) et Stenelmis vulgaris est dysmorphique[b 7]. La présence de ces différents types d'ailes ne semble pas être liée aux habitats ou aux substrats utilisés par les larves et les adultes[b 8].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Elmidae</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Elmidae</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Elmidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elmidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Adultes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ailes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, Hayashi et Kodama[b 5] publient une étude sur 24 espèces japonaises d'eau douce appartenant à 9 genres différents, 17 d'entre elles présentent une dégénération des ailes arrière. Plus précisément, elles peuvent être aptères (en) (dépourvues d'ailes), brachyptères (aux ailes réduites), macroptères (aux ailes larges) ou dysmorphiques[b 6]. Par exemple, l'espèce Zaitzeviaria brevis est aptère, Zaitzevia rivalis est macroptère (ailes très larges) et Stenelmis vulgaris est dysmorphique[b 7]. La présence de ces différents types d'ailes ne semble pas être liée aux habitats ou aux substrats utilisés par les larves et les adultes[b 8].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Elmidae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elmidae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Systématique, taxinomie et dénomination</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Systématique et dénominations
-La famille des Elmidae est proposée pour la première fois par John Curtis en 1830 car l'espèce Elmis volkmari (Panzer, 1793), différente du genre Elmis, des Parnidae et des Helophoridae, ne pouvait pas être y être classée[b 1].
-Le nom scientifique accepté de ce taxon est Elmidae[5]. En français, les membres de cette famille sont connus sous le nom d'« Elmidés »[6],[7], et en anglais, sous le nom de « riffle beetles[b 9],[b 10],[b 11] ».
-Selon le système mondial d'informations sur la biodiversité les synonymes de la famille des Elmidae sont[5] :
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Systématique et dénominations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La famille des Elmidae est proposée pour la première fois par John Curtis en 1830 car l'espèce Elmis volkmari (Panzer, 1793), différente du genre Elmis, des Parnidae et des Helophoridae, ne pouvait pas être y être classée[b 1].
+Le nom scientifique accepté de ce taxon est Elmidae. En français, les membres de cette famille sont connus sous le nom d'« Elmidés » et en anglais, sous le nom de « riffle beetles[b 9],[b 10],[b 11] ».
+Selon le système mondial d'informations sur la biodiversité les synonymes de la famille des Elmidae sont :
 Elmididae
 Elminthidae
 Helmidae
 Helminthidae
-Limniidae
-Phylogénomique
-La reconstruction phylogénomique réalisée par Cai C et al. en 2021[b 12] intègre la famille Elmidae au sein de la super-famille Dryopoidea (syn. Byrrhoidea[8],[a]) avec une proche parenté avec, d'une part, les familles Limnichidae et Heteroceridae, et, d'autre part, les familles Chelonariidae et Psephenidae[b 13]. Ces divergences évolutives se sont principalement effectuées à la fin du Jurassique mais elles s'intègrent toutefois dans un processus évolutif long de la super-famille Dryopoidea qui s'est principalement effectué pendant le Mésozoïque, c'est-à-dire entre le Trias (-250 Ma) et la fin du Crétacé (-60 Ma)[b 14].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Elmidae</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Elmidae</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Limniidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Elmidae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elmidae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique, taxinomie et dénomination</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Phylogénomique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La reconstruction phylogénomique réalisée par Cai C et al. en 2021[b 12] intègre la famille Elmidae au sein de la super-famille Dryopoidea (syn. Byrrhoidea,[a]) avec une proche parenté avec, d'une part, les familles Limnichidae et Heteroceridae, et, d'autre part, les familles Chelonariidae et Psephenidae[b 13]. Ces divergences évolutives se sont principalement effectuées à la fin du Jurassique mais elles s'intègrent toutefois dans un processus évolutif long de la super-famille Dryopoidea qui s'est principalement effectué pendant le Mésozoïque, c'est-à-dire entre le Trias (-250 Ma) et la fin du Crétacé (-60 Ma)[b 14].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Elmidae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elmidae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Bioécologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Elmidae sont une famille divisée en plusieurs genres et composée de 1 534 espèces[4], de l'ordre des Coléoptères, lui-même composé de plus 350 000 membres décrits[b 4],[b]. Ils sont cosmopolites[b 11].
-Habitat
-Contrairement à la majorité des Coléoptères[c], les membres de cette famille vivent principalement dans des milieux aquatiques[b 4]. Elle se distingue notamment au sein des Polyphages en figurant parmi les 13 familles prédominamment associées aux milieux aquatiques sur les 150 familles répertoriées[b 15]. Considérée comme une représentante des coléoptères aquatiques (en) ou semi-aquatiques, ses membres vivent principalement dans des habitats dits benthiques, ripariens[9] ou lotiques[b 16], bien que peu d'espèces sont rencontrées près de lacs ou dans les étangs[b 17],[b 18], préférant en général une eau bien oxygénée et peu profonde[b 19] à l'instar des eaux courantes. Elles peuplent d'autres milieux[b 11] comme les torrents, les cascades et chutes d'eau[b 20] ou vivent au-dessus de la ligne d'eau[b 15]. Cependant, bien que tous taxons inférieurs à la famille (genres, espèces, etc.) soient considérés comme aquatiques, de nombreuses espèces ne vivent pas leur vie entière dans l'eau — elles sont semi-aquatiques. Les adultes et larves sont généralement considérés comme aquatiques[b 21],[9] mais seule la phase adulte de la sous-famille Elminae et le stade larvaire de la sous-famille Larainae sont rigoureusement associées à un mode de vie strictement aquatique, c'est-à-dire qu'ils vivent tout leur cycle de vie durant dans ces milieux. Plusieurs jeunes adultes, des pupes écloses, réalisent un vol de dispersion hors de l'eau.
-La famille est dite détritivore et herbivore[9] et vit aux abords ou sur des dépôts de végétaux et des débris ligneux[10],[9].
-Cycle de vie
-Les Elmidae sont des holométaboles[4] qui se métamorphosent durant leur vie, passant par plusieurs stades de développement, de l'œuf, puis à la larve et à la pupe (par nymphose) avant d'arriver au stade d'adulte (imago)[b 22].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Elmidae</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Elmidae</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Elmidae sont une famille divisée en plusieurs genres et composée de 1 534 espèces, de l'ordre des Coléoptères, lui-même composé de plus 350 000 membres décrits[b 4],[b]. Ils sont cosmopolites[b 11].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Elmidae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elmidae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Bioécologie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement à la majorité des Coléoptères[c], les membres de cette famille vivent principalement dans des milieux aquatiques[b 4]. Elle se distingue notamment au sein des Polyphages en figurant parmi les 13 familles prédominamment associées aux milieux aquatiques sur les 150 familles répertoriées[b 15]. Considérée comme une représentante des coléoptères aquatiques (en) ou semi-aquatiques, ses membres vivent principalement dans des habitats dits benthiques, ripariens ou lotiques[b 16], bien que peu d'espèces sont rencontrées près de lacs ou dans les étangs[b 17],[b 18], préférant en général une eau bien oxygénée et peu profonde[b 19] à l'instar des eaux courantes. Elles peuplent d'autres milieux[b 11] comme les torrents, les cascades et chutes d'eau[b 20] ou vivent au-dessus de la ligne d'eau[b 15]. Cependant, bien que tous taxons inférieurs à la famille (genres, espèces, etc.) soient considérés comme aquatiques, de nombreuses espèces ne vivent pas leur vie entière dans l'eau — elles sont semi-aquatiques. Les adultes et larves sont généralement considérés comme aquatiques[b 21], mais seule la phase adulte de la sous-famille Elminae et le stade larvaire de la sous-famille Larainae sont rigoureusement associées à un mode de vie strictement aquatique, c'est-à-dire qu'ils vivent tout leur cycle de vie durant dans ces milieux. Plusieurs jeunes adultes, des pupes écloses, réalisent un vol de dispersion hors de l'eau.
+La famille est dite détritivore et herbivore et vit aux abords ou sur des dépôts de végétaux et des débris ligneux,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Elmidae</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elmidae</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Bioécologie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cycle de vie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Elmidae sont des holométaboles qui se métamorphosent durant leur vie, passant par plusieurs stades de développement, de l'œuf, puis à la larve et à la pupe (par nymphose) avant d'arriver au stade d'adulte (imago)[b 22].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Elmidae</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elmidae</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Taxons inférieurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon M. Jäch, M. Kodada et al., 147 genres, 14 sous-genres et 1 498 espèces sont reconnues en 2014[b 23].
-Selon le système d'information taxonomique intégré (ITIS), la famille compte deux sous-familles : les Elminae (en) et les Larainae (en), 147 genres, 1 534 espèces, 82 sous-espèces et 3 tribus en 2018[4].
+Selon le système d'information taxonomique intégré (ITIS), la famille compte deux sous-familles : les Elminae (en) et les Larainae (en), 147 genres, 1 534 espèces, 82 sous-espèces et 3 tribus en 2018.
 Toutefois, M. Jäch, M. Kodada et al. soulignent en 2016 que les listes agrégées sont principalement issues de la même base de données, présentent des erreurs et sont incomplètes[b 24]. Ils soulignent également que plusieurs genres doivent être révisés, que la réalisation d'une synthèse familiale avec des méthodes modernes (à l'instar de la phylogénétique moléculaire[b 23]) fera apparaître davantage de synonymes[b 23] et que Larainae, considérée comme une sous-famille des Elminae bien qu'aucun séquençage de l'ADN ne l'affirme[b 25], tend à être révisée ultérieurement puisqu'elle semble être intégrée à Elminae ; autrement dit, les Elmidae pourraient n'avoir qu'une seule sous-famille, les Elminae[b 25].
-Liste des genres
-Liste des genres selon GBIF       (23 juin 2022)[5] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Elmidae</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elmidae</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Taxons inférieurs</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des genres selon GBIF       (23 juin 2022) :
 Aesobia Jäch, 1982
 Amazonopsis Barr, 2018
 Ampumixis Sanderson, 1954
@@ -819,33 +1162,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Elmidae</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Elmidae</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Elmidae</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elmidae</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Denrée alimentaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des espèces de la famille Elmidae sont consommées en tant que denrées alimentaires[11], parmi lesquelles on recense les larves de deux espèces en Amérique du Sud, à savoir Austrelmis chilensis au Chili et Perou[b 26] et Austrelmis condimentarius au Chili, Pérou et Mexique[b 26] ainsi que l'espèce Austrelmis condimentarius qui a été utilisée pour l'assaisonnement des plats et qui possède une valeur commerciale importante[b 11].
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des espèces de la famille Elmidae sont consommées en tant que denrées alimentaires, parmi lesquelles on recense les larves de deux espèces en Amérique du Sud, à savoir Austrelmis chilensis au Chili et Perou[b 26] et Austrelmis condimentarius au Chili, Pérou et Mexique[b 26] ainsi que l'espèce Austrelmis condimentarius qui a été utilisée pour l'assaisonnement des plats et qui possède une valeur commerciale importante[b 11].
 </t>
         </is>
       </c>
